--- a/biology/Médecine/Johann_Heinrich_Meibom/Johann_Heinrich_Meibom.xlsx
+++ b/biology/Médecine/Johann_Heinrich_Meibom/Johann_Heinrich_Meibom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Meibom, en latin Melbomius, est un médecin allemand, fils de Heinrich Meibom, né à Helmstedt en 1590, mort à Lübeck en 1655. 
 Il commença ses études médicales à l’université de sa ville natale, les continua à Wittemberg et à Leipzig, voyagea ensuite en France et en Italie, revint enfin à Bâle, où il se fit recevoir docteur en 1619. Nommé en 1620 professeur de médecine à l’université d’Helmstædt, il abandonna sa chaire en 1625, à cause de la guerre, et se retira à Lubeck, où il devint médecin du prince-évêque et médecin pensionné de la ville. 
@@ -512,11 +524,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Meibom nous a laissé plusieurs écrits qui, tous, témoignent d’une instruction solide et d une érudition profonde. Voici les titres des principaux : Dissertaiio de medicina et medico in genere (Helmstædt, 1613) ; Positiones inaugurales de phthisi (Bâle, 1619, in-4°) ; Dissertatio de phrenitide (Helmstædt, 1621) ; De dysenteria, venæ sectione et peripneumonia ; De scorbuto (Helmstædt, 1623) ; Epistola de flagrorum usu in re venerea et lumborum renumque officio (Leyde, 1639) ; Index scriptorum H. Meibomii senioris parentis sui, editorum et ineditorum (1651) ; Discursus de Mithridatio et theriaca (Lubeck, 1759) ; De cerevisiis potibusgue et ebriaminibus, extra vinum, aliis, commentarius (Helmstædt, 1668) ; Hippocratis magni jusjurandum (Leyde, 1643).
-Source
-« Johann Heinrich Meibom », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Johann_Heinrich_Meibom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johann_Heinrich_Meibom</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Johann Heinrich Meibom », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].
 </t>
         </is>
       </c>
